--- a/report/data.xlsx
+++ b/report/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Inst\3 course\5 sem\par_prog\labs\6\par_prog-6\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E869F3D4-D846-4A0B-923B-838864A96C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1FC1345A-0D95-4EED-9035-B301774F4F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="11">
+  <si>
+    <t>NUMTASKS</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>TIMES:</t>
+  </si>
+  <si>
+    <t>Avg time (pr)</t>
+  </si>
+  <si>
+    <t>Avg time (th)</t>
+  </si>
+  <si>
+    <t>Avg speed up (pr)</t>
+  </si>
+  <si>
+    <t>Avg speed up (th)</t>
+  </si>
+  <si>
+    <t>Avg efficiency (pr)</t>
+  </si>
+  <si>
+    <t>Avg efficiency (th)</t>
+  </si>
+  <si>
+    <t>Procs</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -457,6 +494,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -502,8 +648,59 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -560,6 +757,3116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Practical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$I$2:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5.4329131999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0745597999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9232830000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3584391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6457867999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2018402999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7683291999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9135350000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3514280999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9386739999999989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5790893000000015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3812818999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9424180999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.710286200000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.542122299999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.5810067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB20-4B99-A812-C02078A3F8B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Theoretical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$J$2:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5.4329131999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7164565999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8109710666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3582282999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.08658264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90548553333333326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77613045714285711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67911414999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60365702222222217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54329132000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49390119999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45274276666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41791639999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38806522857142856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36219421333333329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33955707499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB20-4B99-A812-C02078A3F8B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="738501528"/>
+        <c:axId val="738501888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="738501528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738501888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="738501888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738501528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg speed up</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Practical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3333742702708646</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3847874853789541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2465272716555795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1694280073291352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0444213752582907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94185213978425508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78583723088116275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73902827125521364</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68436028485361666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63327388374428029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57912268897921082</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54643781274899317</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50726125320535309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47070313923116203</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43183453673862204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0473-4AE2-AC6A-D0790EC58F79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Theoretical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$L$2:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0473-4AE2-AC6A-D0790EC58F79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="745008408"/>
+        <c:axId val="745005528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="745008408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745005528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="745005528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16.100000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745008408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg efficiency</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Practical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66668713513543232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46159582845965136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31163181791389488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23388560146582704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17407022920971513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13455030568346502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8229653860145344E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2114252361690399E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8436028485361663E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7570353067661846E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8260224081600904E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2033677903768704E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6232946657525224E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1380209282077472E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6989658546163878E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F754-4DBE-B539-D2B0FDC5782C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Theoretical</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$N$2:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F754-4DBE-B539-D2B0FDC5782C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="745003728"/>
+        <c:axId val="745011288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="745003728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745011288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="745011288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745003728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE1D941-AAD4-BE6B-73A3-131A59C4D5D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05316F00-23DD-4419-B562-27D1C34CB2E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1042987</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0661935A-6D9C-18E3-7AE0-ADA6C018698F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -858,15 +4165,2515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.2531699999999999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <f>SUMIF(A:A, H2, C:C)/F$1</f>
+        <v>5.4329131999999998</v>
+      </c>
+      <c r="J2" s="6">
+        <f>I$2/H2</f>
+        <v>5.4329131999999998</v>
+      </c>
+      <c r="K2" s="7">
+        <f>I$2/I2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
+        <f>J$2/J2</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <f>K2/H2</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="8">
+        <f>L2/H2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.1669140000000002</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I17" si="0">SUMIF(A:A, H3, C:C)/F$1</f>
+        <v>4.0745597999999994</v>
+      </c>
+      <c r="J3" s="10">
+        <f>I$2/H3</f>
+        <v>2.7164565999999999</v>
+      </c>
+      <c r="K3" s="11">
+        <f>I$2/I3</f>
+        <v>1.3333742702708646</v>
+      </c>
+      <c r="L3" s="12">
+        <f>J$2/J3</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="11">
+        <f>K3/H3</f>
+        <v>0.66668713513543232</v>
+      </c>
+      <c r="N3" s="12">
+        <f t="shared" ref="N3:N17" si="1">L3/H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.5922179999999999</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>3.9232830000000001</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ref="J3:J16" si="2">I$2/H4</f>
+        <v>1.8109710666666665</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:L17" si="3">I$2/I4</f>
+        <v>1.3847874853789541</v>
+      </c>
+      <c r="L4" s="12">
+        <f>J$2/J4</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" ref="M3:M16" si="4">K4/H4</f>
+        <v>0.46159582845965136</v>
+      </c>
+      <c r="N4" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.4722590000000002</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>4.3584391</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="2"/>
+        <v>1.3582282999999999</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2465272716555795</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="4"/>
+        <v>0.31163181791389488</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.5947389999999997</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.6457867999999998</v>
+      </c>
+      <c r="J6" s="10">
+        <f>I$2/H6</f>
+        <v>1.08658264</v>
+      </c>
+      <c r="K6" s="11">
+        <f>I$2/I6</f>
+        <v>1.1694280073291352</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="4"/>
+        <v>0.23388560146582704</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.3628559999999998</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2018402999999998</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="2"/>
+        <v>0.90548553333333326</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0444213752582907</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="4"/>
+        <v>0.17407022920971513</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.4182920000000001</v>
+      </c>
+      <c r="H8" s="9">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7683291999999993</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="2"/>
+        <v>0.77613045714285711</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="3"/>
+        <v>0.94185213978425508</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="4"/>
+        <v>0.13455030568346502</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.4153729999999998</v>
+      </c>
+      <c r="H9" s="9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9135350000000004</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.67911414999999997</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="3"/>
+        <v>0.78583723088116275</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="4"/>
+        <v>9.8229653860145344E-2</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.4080940000000002</v>
+      </c>
+      <c r="H10" s="9">
+        <v>9</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>7.3514280999999997</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.60365702222222217</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="3"/>
+        <v>0.73902827125521364</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="4"/>
+        <v>8.2114252361690399E-2</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.6452169999999997</v>
+      </c>
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="0"/>
+        <v>7.9386739999999989</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.54329132000000002</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="3"/>
+        <v>0.68436028485361666</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="4"/>
+        <v>6.8436028485361663E-2</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9">
+        <v>11</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>8.5790893000000015</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.49390119999999998</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="3"/>
+        <v>0.63327388374428029</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="4"/>
+        <v>5.7570353067661846E-2</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.160615</v>
+      </c>
+      <c r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>9.3812818999999994</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.45274276666666663</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="3"/>
+        <v>0.57912268897921082</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="4"/>
+        <v>4.8260224081600904E-2</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.0704099999999999</v>
+      </c>
+      <c r="H14" s="9">
+        <v>13</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9424180999999994</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="2"/>
+        <v>0.41791639999999997</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="3"/>
+        <v>0.54643781274899317</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="4"/>
+        <v>4.2033677903768704E-2</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.0591609999999996</v>
+      </c>
+      <c r="H15" s="9">
+        <v>14</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>10.710286200000001</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.38806522857142856</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="3"/>
+        <v>0.50726125320535309</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="4"/>
+        <v>3.6232946657525224E-2</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.0857570000000001</v>
+      </c>
+      <c r="H16" s="9">
+        <v>15</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="0"/>
+        <v>11.542122299999999</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="2"/>
+        <v>0.36219421333333329</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="3"/>
+        <v>0.47070313923116203</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="3"/>
+        <v>15.000000000000002</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="4"/>
+        <v>3.1380209282077472E-2</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.1497019999999996</v>
+      </c>
+      <c r="H17" s="13">
+        <v>16</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="0"/>
+        <v>12.5810067</v>
+      </c>
+      <c r="J17" s="14">
+        <f>I$2/H17</f>
+        <v>0.33955707499999999</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="3"/>
+        <v>0.43183453673862204</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="M17" s="15">
+        <f>K17/H17</f>
+        <v>2.6989658546163878E-2</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.0295949999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.0877590000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.0404220000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.956229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4.1059479999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.98719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.8643380000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.8560020000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.9777830000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.86232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.9339900000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.9583279999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.9285380000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.9531329999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3.9112079999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4.3661370000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4.3116099999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4.3279870000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4.3573560000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4.3474310000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4.3832339999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.3517270000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4.3787149999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4.3584440000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.4017499999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4.6801159999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.6108609999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4.6031380000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4.6783250000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4.6108500000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4.6120739999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4.6308939999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4.6539840000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4.7549149999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>9</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4.6227109999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5.163392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5.1820700000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5.1979220000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5.2033759999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5.2119489999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5.1865839999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5.1934760000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5.1657970000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5.2249470000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <v>9</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5.2888900000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5.7749560000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5.7271369999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5.7448309999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5.7724310000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5.7455210000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5.7997589999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>7</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5.7667320000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>7</v>
+      </c>
+      <c r="B75" s="1">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5.7796380000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5.7454900000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>7</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5.826797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>6.8620479999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>6.9100159999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1">
+        <v>6.9066780000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>7.0104050000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>6.9023659999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6.9157060000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1">
+        <v>6.9076959999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1">
+        <v>6.8868090000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6.8933819999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1">
+        <v>6.9402439999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>9</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>7.3327590000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>9</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1">
+        <v>7.3649269999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>9</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1">
+        <v>7.3426130000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>9</v>
+      </c>
+      <c r="B93" s="1">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1">
+        <v>7.3394349999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>9</v>
+      </c>
+      <c r="B94" s="1">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1">
+        <v>7.3397100000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>9</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1">
+        <v>7.387931</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>9</v>
+      </c>
+      <c r="B96" s="1">
+        <v>6</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7.3344630000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>9</v>
+      </c>
+      <c r="B97" s="1">
+        <v>7</v>
+      </c>
+      <c r="C97" s="1">
+        <v>7.362584</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>9</v>
+      </c>
+      <c r="B98" s="1">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1">
+        <v>7.3283040000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>9</v>
+      </c>
+      <c r="B99" s="1">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1">
+        <v>7.3815549999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>10</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>7.8730279999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>7.9943299999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1">
+        <v>7.9734749999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1">
+        <v>7.8893310000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>10</v>
+      </c>
+      <c r="B105" s="1">
+        <v>4</v>
+      </c>
+      <c r="C105" s="1">
+        <v>7.9302539999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>10</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5</v>
+      </c>
+      <c r="C106" s="1">
+        <v>7.9099019999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>10</v>
+      </c>
+      <c r="B107" s="1">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1">
+        <v>7.9105590000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1">
+        <v>7</v>
+      </c>
+      <c r="C108" s="1">
+        <v>7.9538380000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1">
+        <v>8</v>
+      </c>
+      <c r="C109" s="1">
+        <v>7.9409609999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>10</v>
+      </c>
+      <c r="B110" s="1">
+        <v>9</v>
+      </c>
+      <c r="C110" s="1">
+        <v>8.0110620000000008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>11</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>8.5498899999999995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>11</v>
+      </c>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1">
+        <v>8.5412999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>11</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1">
+        <v>8.5587260000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>11</v>
+      </c>
+      <c r="B115" s="1">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1">
+        <v>8.5613569999999992</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>11</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1">
+        <v>8.573086</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>11</v>
+      </c>
+      <c r="B117" s="1">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1">
+        <v>8.5196570000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>11</v>
+      </c>
+      <c r="B118" s="1">
+        <v>6</v>
+      </c>
+      <c r="C118" s="1">
+        <v>8.6428460000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>11</v>
+      </c>
+      <c r="B119" s="1">
+        <v>7</v>
+      </c>
+      <c r="C119" s="1">
+        <v>8.626322</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>11</v>
+      </c>
+      <c r="B120" s="1">
+        <v>8</v>
+      </c>
+      <c r="C120" s="1">
+        <v>8.6332380000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>11</v>
+      </c>
+      <c r="B121" s="1">
+        <v>9</v>
+      </c>
+      <c r="C121" s="1">
+        <v>8.5844710000000006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>12</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>9.3561370000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>12</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1</v>
+      </c>
+      <c r="C124" s="1">
+        <v>9.3657199999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>12</v>
+      </c>
+      <c r="B125" s="1">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1">
+        <v>9.4150139999999993</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>12</v>
+      </c>
+      <c r="B126" s="1">
+        <v>3</v>
+      </c>
+      <c r="C126" s="1">
+        <v>9.3612509999999993</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>12</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4</v>
+      </c>
+      <c r="C127" s="1">
+        <v>9.3754580000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>12</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5</v>
+      </c>
+      <c r="C128" s="1">
+        <v>9.3564100000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1">
+        <v>6</v>
+      </c>
+      <c r="C129" s="1">
+        <v>9.4109379999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>12</v>
+      </c>
+      <c r="B130" s="1">
+        <v>7</v>
+      </c>
+      <c r="C130" s="1">
+        <v>9.3496790000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>12</v>
+      </c>
+      <c r="B131" s="1">
+        <v>8</v>
+      </c>
+      <c r="C131" s="1">
+        <v>9.4015570000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1">
+        <v>9</v>
+      </c>
+      <c r="C132" s="1">
+        <v>9.420655</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>13</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>9.9150759999999991</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>13</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1">
+        <v>9.8875849999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>13</v>
+      </c>
+      <c r="B136" s="1">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1">
+        <v>9.9235039999999994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>13</v>
+      </c>
+      <c r="B137" s="1">
+        <v>3</v>
+      </c>
+      <c r="C137" s="1">
+        <v>9.9603950000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>13</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1">
+        <v>9.9865189999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>13</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5</v>
+      </c>
+      <c r="C139" s="1">
+        <v>9.9062450000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>13</v>
+      </c>
+      <c r="B140" s="1">
+        <v>6</v>
+      </c>
+      <c r="C140" s="1">
+        <v>9.9365369999999995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1">
+        <v>9.9350140000000007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>13</v>
+      </c>
+      <c r="B142" s="1">
+        <v>8</v>
+      </c>
+      <c r="C142" s="1">
+        <v>9.9578159999999993</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1">
+        <v>9</v>
+      </c>
+      <c r="C143" s="1">
+        <v>10.01549</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F144" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>14</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0</v>
+      </c>
+      <c r="C145" s="1">
+        <v>10.669957999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>14</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>10.651605999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>14</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1">
+        <v>10.671643</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>14</v>
+      </c>
+      <c r="B148" s="1">
+        <v>3</v>
+      </c>
+      <c r="C148" s="1">
+        <v>10.763992</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>14</v>
+      </c>
+      <c r="B149" s="1">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1">
+        <v>10.686282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>14</v>
+      </c>
+      <c r="B150" s="1">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1">
+        <v>10.678986</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>14</v>
+      </c>
+      <c r="B151" s="1">
+        <v>6</v>
+      </c>
+      <c r="C151" s="1">
+        <v>10.76164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>14</v>
+      </c>
+      <c r="B152" s="1">
+        <v>7</v>
+      </c>
+      <c r="C152" s="1">
+        <v>10.730337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>14</v>
+      </c>
+      <c r="B153" s="1">
+        <v>8</v>
+      </c>
+      <c r="C153" s="1">
+        <v>10.702873</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>14</v>
+      </c>
+      <c r="B154" s="1">
+        <v>9</v>
+      </c>
+      <c r="C154" s="1">
+        <v>10.785545000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F155" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>15</v>
+      </c>
+      <c r="B156" s="1">
+        <v>0</v>
+      </c>
+      <c r="C156" s="1">
+        <v>11.501512999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>15</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1">
+        <v>11.652397000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>15</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2</v>
+      </c>
+      <c r="C158" s="1">
+        <v>11.611333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>15</v>
+      </c>
+      <c r="B159" s="1">
+        <v>3</v>
+      </c>
+      <c r="C159" s="1">
+        <v>11.52838</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>15</v>
+      </c>
+      <c r="B160" s="1">
+        <v>4</v>
+      </c>
+      <c r="C160" s="1">
+        <v>11.465391</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>15</v>
+      </c>
+      <c r="B161" s="1">
+        <v>5</v>
+      </c>
+      <c r="C161" s="1">
+        <v>11.509150999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>15</v>
+      </c>
+      <c r="B162" s="1">
+        <v>6</v>
+      </c>
+      <c r="C162" s="1">
+        <v>11.538323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>15</v>
+      </c>
+      <c r="B163" s="1">
+        <v>7</v>
+      </c>
+      <c r="C163" s="1">
+        <v>11.518015999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>15</v>
+      </c>
+      <c r="B164" s="1">
+        <v>8</v>
+      </c>
+      <c r="C164" s="1">
+        <v>11.520346999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>15</v>
+      </c>
+      <c r="B165" s="1">
+        <v>9</v>
+      </c>
+      <c r="C165" s="1">
+        <v>11.576371999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F166" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>16</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1">
+        <v>12.562548</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>16</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1">
+        <v>12.520799999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>16</v>
+      </c>
+      <c r="B169" s="1">
+        <v>2</v>
+      </c>
+      <c r="C169" s="1">
+        <v>12.541176999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>16</v>
+      </c>
+      <c r="B170" s="1">
+        <v>3</v>
+      </c>
+      <c r="C170" s="1">
+        <v>12.579438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>16</v>
+      </c>
+      <c r="B171" s="1">
+        <v>4</v>
+      </c>
+      <c r="C171" s="1">
+        <v>12.607132</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>16</v>
+      </c>
+      <c r="B172" s="1">
+        <v>5</v>
+      </c>
+      <c r="C172" s="1">
+        <v>12.627359</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>16</v>
+      </c>
+      <c r="B173" s="1">
+        <v>6</v>
+      </c>
+      <c r="C173" s="1">
+        <v>12.655132</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>16</v>
+      </c>
+      <c r="B174" s="1">
+        <v>7</v>
+      </c>
+      <c r="C174" s="1">
+        <v>12.503291000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>16</v>
+      </c>
+      <c r="B175" s="1">
+        <v>8</v>
+      </c>
+      <c r="C175" s="1">
+        <v>12.605212999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>16</v>
+      </c>
+      <c r="B176" s="1">
+        <v>9</v>
+      </c>
+      <c r="C176" s="1">
+        <v>12.607977</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>